--- a/SBD_PROJECTS/euro_monitor/euromonitor_excel_old.xlsx
+++ b/SBD_PROJECTS/euro_monitor/euromonitor_excel_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ambika\SBD_PROJECT\Euro_Numerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB548315-2AC1-4500-A1E3-98CF3A5FA536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0246C4E-5714-4685-B11E-C7BCBD242A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="842" activeTab="2" xr2:uid="{FA40C2A3-25B8-4B11-AE46-0D886578C5E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="842" xr2:uid="{FA40C2A3-25B8-4B11-AE46-0D886578C5E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Global-Market Size in Value" sheetId="2" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>Others</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Brand 1</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Not Available</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,14 +500,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -615,48 +607,45 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CCEDB-CF10-4149-AB85-52774535F2D5}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,462 +1009,452 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
         <v>2018</v>
       </c>
-      <c r="G3" s="7">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="G5" s="6">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="6">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="6">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G9" s="6">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="6">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G11" s="6">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="7">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="7">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="6">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="7">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="6">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G7" s="7">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G15" s="6">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="7">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G16" s="6">
+        <v>24</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G9" s="7">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G17" s="6">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G10" s="7">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="6">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="7">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G19" s="6">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="7">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="7">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G14" s="7">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G15" s="7">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G16" s="7">
-        <v>22</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G17" s="7">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G18" s="7">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G19" s="7">
-        <v>32</v>
-      </c>
-      <c r="H19" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G20" s="7">
-        <v>30</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="H19" s="6">
         <v>-4.2</v>
       </c>
     </row>
@@ -1496,7 +1475,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1510,366 +1489,366 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>133</v>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="2">
         <v>2018</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>1.9110000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>133</v>
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C3" s="2">
         <v>2018</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>3.6650000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>133</v>
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="2">
         <v>2018</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>2.298E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>133</v>
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="2">
         <v>2018</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2.0750000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>133</v>
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C6" s="2">
         <v>2018</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1.8509999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>133</v>
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C7" s="2">
         <v>2018</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1.7319999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>133</v>
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="2">
         <v>2018</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>4.861E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>133</v>
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C9" s="2">
         <v>2018</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1.137E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>133</v>
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="2">
         <v>2018</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>4.8989999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>133</v>
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C11" s="2">
         <v>2018</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2.878E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>133</v>
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C12" s="2">
         <v>2018</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.477E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>133</v>
+      <c r="A13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="2">
         <v>2018</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>2.4750000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>133</v>
+      <c r="A14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C14" s="2">
         <v>2018</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>2.443E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>133</v>
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="2">
         <v>2019</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1.6109999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>133</v>
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>2019</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>3.7330000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>133</v>
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C17" s="2">
         <v>2019</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>2.2540000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>133</v>
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C18" s="2">
         <v>2019</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>2.8990000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>133</v>
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C19" s="2">
         <v>2019</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>1.1080000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>133</v>
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C20" s="2">
         <v>2019</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>1.4459999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>133</v>
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="2">
         <v>2019</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>7.6600000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>133</v>
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C22" s="2">
         <v>2019</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>6.11E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>133</v>
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="2">
         <v>2019</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>3.6360000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>133</v>
+      <c r="A24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C24" s="2">
         <v>2019</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>133</v>
+      <c r="A25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C25" s="2">
         <v>2019</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>3.82E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>133</v>
+      <c r="A26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C26" s="2">
         <v>2019</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>1.7780000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>133</v>
+      <c r="A27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="C27" s="2">
         <v>2019</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>1.8120000000000001E-2</v>
       </c>
     </row>
@@ -1881,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2D103A-B70E-4300-82BF-B782273E841C}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,462 +1905,452 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
         <v>2018</v>
       </c>
-      <c r="G3" s="7">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="G5" s="6">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="6">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="6">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="6">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G9" s="6">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G10" s="6">
+        <v>34</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G11" s="6">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="7">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="7">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="6">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="7">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G14" s="6">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G7" s="7">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G15" s="6">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G8" s="7">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G16" s="6">
+        <v>24</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G9" s="7">
-        <v>34</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G17" s="6">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G10" s="7">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G18" s="6">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G11" s="7">
-        <v>34</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G19" s="6">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G12" s="7">
-        <v>11</v>
-      </c>
-      <c r="H12" s="7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G13" s="7">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G14" s="7">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G15" s="7">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G16" s="7">
-        <v>22</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G17" s="7">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G18" s="7">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G19" s="7">
-        <v>32</v>
-      </c>
-      <c r="H19" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G20" s="7">
-        <v>30</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="H19" s="6">
         <v>-4.2</v>
       </c>
     </row>
@@ -2393,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F432B906-5A44-45C5-99B2-BDBB1F9027C2}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,323 +2407,313 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G2" s="6">
+        <v>307.03254580059399</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G3" s="6">
+        <v>363.51182188244098</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43.657044689825398</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G3" s="7">
-        <v>307.03254580059399</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="F5" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="6">
+        <v>310.71693635020102</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.1999999999999789E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G4" s="7">
-        <v>363.51182188244098</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F6" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G6" s="6">
+        <v>367.87396374503101</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.2000000000002009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="6">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="7">
-        <v>43.657044689825398</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F7" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G7" s="6">
+        <v>44.049958092033798</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8.9999999999994529E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G6" s="7">
-        <v>310.71693635020102</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1.1999999999999789E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="6">
+        <v>309.78478554114997</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-3.000000000001446E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G7" s="7">
-        <v>367.87396374503101</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1.2000000000002009E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="F9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="6">
+        <v>366.03459392630498</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-5.0000000000023359E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6">
-        <v>2019</v>
-      </c>
-      <c r="G8" s="7">
-        <v>44.049958092033798</v>
-      </c>
-      <c r="H8" s="8">
-        <v>8.9999999999994529E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="F10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="6">
+        <v>43.697558427297501</v>
+      </c>
+      <c r="H10" s="7">
+        <v>-8.0000000000005622E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G9" s="7">
-        <v>309.78478554114997</v>
-      </c>
-      <c r="H9" s="8">
-        <v>-3.000000000001446E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="F11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="6">
+        <v>311.95327903993899</v>
+      </c>
+      <c r="H11" s="7">
+        <v>7.0000000000032259E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G10" s="7">
-        <v>366.03459392630498</v>
-      </c>
-      <c r="H10" s="8">
-        <v>-5.0000000000023359E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="6">
+        <v>371.52511283519999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.5000000000001235E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6">
-        <v>2020</v>
-      </c>
-      <c r="G11" s="7">
-        <v>43.697558427297501</v>
-      </c>
-      <c r="H11" s="8">
-        <v>-8.0000000000005622E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F13" s="5">
         <v>2021</v>
       </c>
-      <c r="G12" s="7">
-        <v>311.95327903993899</v>
-      </c>
-      <c r="H12" s="8">
-        <v>7.0000000000032259E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G13" s="7">
-        <v>371.52511283519999</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1.5000000000001235E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2021</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="G13" s="6">
         <v>43.959743777861298</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H13" s="7">
         <v>6.0000000000002274E-3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2819,31 +2778,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>2019</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="2">
@@ -2852,31 +2811,31 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>2020</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.25</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="2">
@@ -2887,31 +2846,31 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>2019</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.01</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2">
@@ -2920,31 +2879,31 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>2020</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.01</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="2">
@@ -2955,31 +2914,31 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>2019</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.01</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="2">
@@ -2988,31 +2947,31 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>2020</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.01</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="2">
@@ -3023,32 +2982,32 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>2019</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <f>0.011*0.802</f>
         <v>8.822E-3</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="2">
@@ -3057,32 +3016,32 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>2020</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f>0.011*0.75</f>
         <v>8.2500000000000004E-3</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="2">
@@ -3093,32 +3052,32 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="2">
         <v>2019</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <f>0.011*0.225</f>
         <v>2.4749999999999998E-3</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="2">
@@ -3127,32 +3086,32 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="2">
         <v>2020</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f>0.011*0.25</f>
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="2">
@@ -3163,32 +3122,32 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>2019</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f>0.36*0.71</f>
         <v>0.25559999999999999</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="2">
@@ -3197,32 +3156,32 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>2020</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f>0.37*0.69</f>
         <v>0.25529999999999997</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J13" s="2">
@@ -3233,32 +3192,32 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="2">
         <v>2019</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f>0.36*0.29</f>
         <v>0.10439999999999999</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J14" s="2">
@@ -3267,32 +3226,32 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="2">
         <v>2020</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f>0.37*0.31</f>
         <v>0.1147</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="2">
@@ -3303,31 +3262,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="2">
         <v>2019</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="2">
@@ -3336,31 +3295,31 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="2">
         <v>2020</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.19</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="2">
@@ -3371,31 +3330,31 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="2">
         <v>2019</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>0.18</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J18" s="2">
@@ -3404,31 +3363,31 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="2">
         <v>2020</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>0.17</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J19" s="2">
@@ -3449,7 +3408,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3494,348 +3453,350 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>2019</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>0.218</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>29.214779878456898</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2">
         <v>2019</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.11</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>14.741402690964501</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2">
         <v>2019</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>6.5666248350660199</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>2019</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>4.6904463107614403</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>2019</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>4.4224208072893596</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>2019</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="9">
         <v>0.55499999999999905</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>74.377077213502801</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>2020</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.23</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>30.658999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>2020</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0.113</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>15.062900000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>2020</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>6.9316000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>2020</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>5.0654000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>2020</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>4.6654999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="11">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>70.915599999999998</v>
       </c>
     </row>
@@ -3850,7 +3811,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3900,386 +3861,386 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J2" s="6">
+        <v>26.936563098944202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>14.741402690964501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.8965610763858098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.6904463107614403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4.0203825520812302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J7" s="6">
+        <v>77.727396006903902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J8" s="12">
+        <v>27.726400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="10">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="J2" s="7">
-        <v>26.936563098944202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="G9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.113</v>
+      </c>
+      <c r="J9" s="12">
+        <v>15.062900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="J3" s="7">
-        <v>14.741402690964501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="G10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5.9984999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="10">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>5.8965610763858098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="G11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4.7988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="I12" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J5" s="7">
-        <v>4.6904463107614403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="J12" s="12">
+        <v>4.6654999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="J6" s="7">
-        <v>4.0203825520812302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J7" s="7">
-        <v>77.727396006903902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="J8" s="13">
-        <v>27.726400000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.113</v>
-      </c>
-      <c r="J9" s="13">
-        <v>15.062900000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="12">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5.9984999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J11" s="13">
-        <v>4.7988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J12" s="13">
-        <v>4.6654999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2020</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="G13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="11">
         <v>0.56299999999999994</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>75.047899999999998</v>
       </c>
     </row>
@@ -4309,67 +4270,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="377" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="15" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="261" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="261" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="15" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4393,213 +4354,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>89</v>
+      <c r="D15" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4623,198 +4584,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="52" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="17">
+        <v>1.37</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="18">
-        <v>1.37</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="17">
+        <v>5.39</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="18">
-        <v>5.39</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="17">
+        <v>763.64</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="18">
-        <v>763.64</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C5" s="17">
+        <v>6.62</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="17">
+        <v>73.8</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="17">
+        <v>20.56</v>
+      </c>
+      <c r="D10" s="17">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="17">
+        <v>76.25</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1118.69</v>
+      </c>
+      <c r="D12" s="17">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="18">
-        <v>6.62</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="18">
-        <v>73.8</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.84</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="18">
-        <v>20.56</v>
-      </c>
-      <c r="D10" s="18">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="18">
-        <v>76.25</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="18">
-        <v>1118.69</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1.3180000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="18">
-        <v>0.76</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1.3180000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
     </row>
@@ -5042,6 +5003,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="5a606993-efe1-4606-bab3-878430297cbc">
@@ -5065,15 +5035,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8E61708-A2EB-4E4B-9B62-DB7BAE8B6B04}">
   <ds:schemaRefs>
@@ -5094,6 +5055,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E1970E-8CA7-4A2D-BF53-C4B62E28852A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A8D082B-25DA-4527-BBC4-1BDAE17B2D0F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5101,12 +5070,4 @@
     <ds:schemaRef ds:uri="5a606993-efe1-4606-bab3-878430297cbc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E1970E-8CA7-4A2D-BF53-C4B62E28852A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>